--- a/Data Files/rawData/login-data.xlsx
+++ b/Data Files/rawData/login-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aq\Katalon Studio\Katalon2\Data Files\rawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BE36CC3-6587-40EB-A96B-07CECFA60FF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13F8E624-6504-409B-AA38-0614C0E24582}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10980" yWindow="4095" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -374,10 +374,14 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
